--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Shh-Cdon.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Shh-Cdon.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -92,9 +92,6 @@
   </si>
   <si>
     <t>Inflammatory-Mac</t>
-  </si>
-  <si>
-    <t>Neutrophils</t>
   </si>
   <si>
     <t>Resolving-Mac</t>
@@ -455,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -537,16 +534,16 @@
         <v>23</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>0.02531733333333333</v>
+        <v>0.08785</v>
       </c>
       <c r="H2">
-        <v>0.07595199999999999</v>
+        <v>0.26355</v>
       </c>
       <c r="I2">
         <v>1</v>
@@ -561,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.12467</v>
+        <v>1.70092</v>
       </c>
       <c r="N2">
-        <v>3.37401</v>
+        <v>5.10276</v>
       </c>
       <c r="O2">
-        <v>0.01913674935358929</v>
+        <v>0.06397439760344623</v>
       </c>
       <c r="P2">
-        <v>0.01913674935358929</v>
+        <v>0.06397439760344621</v>
       </c>
       <c r="Q2">
-        <v>0.02847364528</v>
+        <v>0.149425822</v>
       </c>
       <c r="R2">
-        <v>0.25626280752</v>
+        <v>1.344832398</v>
       </c>
       <c r="S2">
-        <v>0.01913674935358929</v>
+        <v>0.06397439760344623</v>
       </c>
       <c r="T2">
-        <v>0.01913674935358929</v>
+        <v>0.06397439760344621</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +596,16 @@
         <v>24</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>0.02531733333333333</v>
+        <v>0.08785</v>
       </c>
       <c r="H3">
-        <v>0.07595199999999999</v>
+        <v>0.26355</v>
       </c>
       <c r="I3">
         <v>1</v>
@@ -629,22 +626,22 @@
         <v>35.239504</v>
       </c>
       <c r="O3">
-        <v>0.1998718306681982</v>
+        <v>0.4418052270230686</v>
       </c>
       <c r="P3">
-        <v>0.1998718306681982</v>
+        <v>0.4418052270230685</v>
       </c>
       <c r="Q3">
-        <v>0.2973900897564444</v>
+        <v>1.031930142133333</v>
       </c>
       <c r="R3">
-        <v>2.676510807808</v>
+        <v>9.287371279199998</v>
       </c>
       <c r="S3">
-        <v>0.1998718306681982</v>
+        <v>0.4418052270230686</v>
       </c>
       <c r="T3">
-        <v>0.1998718306681982</v>
+        <v>0.4418052270230685</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +658,16 @@
         <v>25</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>0.02531733333333333</v>
+        <v>0.08785</v>
       </c>
       <c r="H4">
-        <v>0.07595199999999999</v>
+        <v>0.26355</v>
       </c>
       <c r="I4">
         <v>1</v>
@@ -679,34 +676,34 @@
         <v>1</v>
       </c>
       <c r="K4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>0.5320596666666667</v>
+        <v>0.040268</v>
       </c>
       <c r="N4">
-        <v>1.596179</v>
+        <v>0.120804</v>
       </c>
       <c r="O4">
-        <v>0.009053226708416042</v>
+        <v>0.001514545682745557</v>
       </c>
       <c r="P4">
-        <v>0.00905322670841604</v>
+        <v>0.001514545682745557</v>
       </c>
       <c r="Q4">
-        <v>0.01347033193422222</v>
+        <v>0.0035375438</v>
       </c>
       <c r="R4">
-        <v>0.121232987408</v>
+        <v>0.0318378942</v>
       </c>
       <c r="S4">
-        <v>0.009053226708416042</v>
+        <v>0.001514545682745557</v>
       </c>
       <c r="T4">
-        <v>0.00905322670841604</v>
+        <v>0.001514545682745557</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,16 +720,16 @@
         <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>0.02531733333333333</v>
+        <v>0.08785</v>
       </c>
       <c r="H5">
-        <v>0.07595199999999999</v>
+        <v>0.26355</v>
       </c>
       <c r="I5">
         <v>1</v>
@@ -747,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>45.06735933333334</v>
+        <v>12.96401166666667</v>
       </c>
       <c r="N5">
-        <v>135.202078</v>
+        <v>38.892035</v>
       </c>
       <c r="O5">
-        <v>0.7668407262487158</v>
+        <v>0.4875977923118364</v>
       </c>
       <c r="P5">
-        <v>0.7668407262487157</v>
+        <v>0.4875977923118364</v>
       </c>
       <c r="Q5">
-        <v>1.140985358695111</v>
+        <v>1.138888424916667</v>
       </c>
       <c r="R5">
-        <v>10.268868228256</v>
+        <v>10.24999582425</v>
       </c>
       <c r="S5">
-        <v>0.7668407262487158</v>
+        <v>0.4875977923118364</v>
       </c>
       <c r="T5">
-        <v>0.7668407262487157</v>
+        <v>0.4875977923118364</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,16 +782,16 @@
         <v>26</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G6">
-        <v>0.02531733333333333</v>
+        <v>0.08785</v>
       </c>
       <c r="H6">
-        <v>0.07595199999999999</v>
+        <v>0.26355</v>
       </c>
       <c r="I6">
         <v>1</v>
@@ -803,96 +800,34 @@
         <v>1</v>
       </c>
       <c r="K6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L6">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M6">
-        <v>0.05030366666666666</v>
+        <v>0.13581</v>
       </c>
       <c r="N6">
-        <v>0.150911</v>
+        <v>0.40743</v>
       </c>
       <c r="O6">
-        <v>0.0008559387736549429</v>
+        <v>0.005108037378903201</v>
       </c>
       <c r="P6">
-        <v>0.0008559387736549428</v>
+        <v>0.0051080373789032</v>
       </c>
       <c r="Q6">
-        <v>0.001273554696888889</v>
+        <v>0.0119309085</v>
       </c>
       <c r="R6">
-        <v>0.011461992272</v>
+        <v>0.1073781765</v>
       </c>
       <c r="S6">
-        <v>0.0008559387736549429</v>
+        <v>0.005108037378903201</v>
       </c>
       <c r="T6">
-        <v>0.0008559387736549428</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20">
-      <c r="A7" t="s">
-        <v>20</v>
-      </c>
-      <c r="B7" t="s">
-        <v>21</v>
-      </c>
-      <c r="C7" t="s">
-        <v>22</v>
-      </c>
-      <c r="D7" t="s">
-        <v>27</v>
-      </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="F7">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G7">
-        <v>0.02531733333333333</v>
-      </c>
-      <c r="H7">
-        <v>0.07595199999999999</v>
-      </c>
-      <c r="I7">
-        <v>1</v>
-      </c>
-      <c r="J7">
-        <v>1</v>
-      </c>
-      <c r="K7">
-        <v>2</v>
-      </c>
-      <c r="L7">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M7">
-        <v>0.2492753333333333</v>
-      </c>
-      <c r="N7">
-        <v>0.7478259999999999</v>
-      </c>
-      <c r="O7">
-        <v>0.004241528247425842</v>
-      </c>
-      <c r="P7">
-        <v>0.004241528247425842</v>
-      </c>
-      <c r="Q7">
-        <v>0.006310986705777776</v>
-      </c>
-      <c r="R7">
-        <v>0.05679888035199999</v>
-      </c>
-      <c r="S7">
-        <v>0.004241528247425842</v>
-      </c>
-      <c r="T7">
-        <v>0.004241528247425842</v>
+        <v>0.0051080373789032</v>
       </c>
     </row>
   </sheetData>
